--- a/Part a (87-09)/Data for PCA.xlsx
+++ b/Part a (87-09)/Data for PCA.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Thesis stuff\Data Analysis\Part a (87-09)\PCA (Cl, Ca, SC)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub Projects\thesis_codes\Part a (87-09)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E807B-E594-4FF0-9C08-3BF1BCE9B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB9A1B-62A2-4606-8E3C-26CDED3FAECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Site + Year code" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,18 +349,6 @@
     <t>Subwatershed</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B9A</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
     <t>RR1</t>
   </si>
   <si>
@@ -377,6 +365,18 @@
   </si>
   <si>
     <t>RR6</t>
+  </si>
+  <si>
+    <t>B1 (19%)</t>
+  </si>
+  <si>
+    <t>B9 (2%)</t>
+  </si>
+  <si>
+    <t>B9A (13%)</t>
+  </si>
+  <si>
+    <t>B7 (12%)</t>
   </si>
 </sst>
 </file>
@@ -398,12 +398,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -418,12 +424,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,7 +742,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,13 +782,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3">
         <v>12.909090909090908</v>
@@ -799,13 +811,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3">
         <v>10.181818181818182</v>
@@ -828,13 +840,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3">
         <v>12.636363636363637</v>
@@ -857,13 +869,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3">
         <v>7.9090909090909092</v>
@@ -886,13 +898,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3">
         <v>9</v>
@@ -915,13 +927,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3">
         <v>5.6363636363636367</v>
@@ -943,176 +955,176 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="7">
+        <v>116.31000000000002</v>
+      </c>
+      <c r="E8" s="7">
+        <v>31.769166666666667</v>
+      </c>
+      <c r="F8" s="7">
+        <v>518.79999999999995</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.88083333333333336</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7">
+        <v>93.27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>25.594166666666663</v>
+      </c>
+      <c r="F9" s="7">
+        <v>416</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.1766666666666665</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.5416666666666671E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7">
+        <v>133.2475</v>
+      </c>
+      <c r="E10" s="7">
+        <v>34.605833333333329</v>
+      </c>
+      <c r="F10" s="7">
+        <v>518.9</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.7633333333333334</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2.2291666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7">
+        <v>24.467500000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.7566666666666668</v>
+      </c>
+      <c r="F11" s="7">
+        <v>240.1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.1133333333333333</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="3">
-        <v>116.31000000000002</v>
-      </c>
-      <c r="E8" s="3">
-        <v>31.769166666666667</v>
-      </c>
-      <c r="F8" s="3">
-        <v>518.79999999999995</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.88083333333333336</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D12" s="7">
+        <v>88.15916666666665</v>
+      </c>
+      <c r="E12" s="7">
+        <v>21.035833333333333</v>
+      </c>
+      <c r="F12" s="7">
+        <v>472.9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="H12" s="8">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I12" s="8">
+        <v>1.9791666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="3">
-        <v>93.27</v>
-      </c>
-      <c r="E9" s="3">
-        <v>25.594166666666663</v>
-      </c>
-      <c r="F9" s="3">
-        <v>416</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1.1766666666666665</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.5416666666666671E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="3">
-        <v>133.2475</v>
-      </c>
-      <c r="E10" s="3">
-        <v>34.605833333333329</v>
-      </c>
-      <c r="F10" s="3">
-        <v>518.9</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.7633333333333334</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="D13" s="7">
+        <v>20.275833333333335</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.5308333333333337</v>
+      </c>
+      <c r="F13" s="7">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="H13" s="8">
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="I10" s="4">
-        <v>2.2291666666666665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="3">
-        <v>24.467500000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.7566666666666668</v>
-      </c>
-      <c r="F11" s="3">
-        <v>240.1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.1133333333333333</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="3">
-        <v>88.15916666666665</v>
-      </c>
-      <c r="E12" s="3">
-        <v>21.035833333333333</v>
-      </c>
-      <c r="F12" s="3">
-        <v>472.9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.54666666666666663</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.9791666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="3">
-        <v>20.275833333333335</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.5308333333333337</v>
-      </c>
-      <c r="F13" s="3">
-        <v>293.60000000000002</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="I13" s="8">
         <v>9.25</v>
       </c>
     </row>
